--- a/biology/Botanique/Pavetta_bidentata/Pavetta_bidentata.xlsx
+++ b/biology/Botanique/Pavetta_bidentata/Pavetta_bidentata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pavetta bidentata Hiern[2] est une espèce de plantes de la famille des Rubiaceae et du genre Pavetta, selon la classification phylogénétique. On la trouve en Afrique tropicale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pavetta bidentata Hiern est une espèce de plantes de la famille des Rubiaceae et du genre Pavetta, selon la classification phylogénétique. On la trouve en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (1 octobre 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (1 octobre 2017) :
 variété Pavetta bidentata var. bidentata
 variété Pavetta bidentata var. sessilifolia
-Selon Tropicos                                           (1 octobre 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 octobre 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Pavetta bidentata var. bidentata
 variété Pavetta bidentata var. sessilifolia S.D. Manning</t>
         </is>
@@ -546,10 +560,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve notamment au Cameroun, en Côte d'Ivoire[5], Guinée équatoriale (Bioko), au Nigeria, en République démocratique du Congo[6].
-La variété Pavetta bidentata var. sessilifolia, endémique du Cameroun, a été récoltée en 1972 par René Letouzey dans la région du Centre, sur les hauteurs de Kombeng, à 8 km au sud-sud-est de Matomb (Nyong-et-Kellé[6]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve notamment au Cameroun, en Côte d'Ivoire, Guinée équatoriale (Bioko), au Nigeria, en République démocratique du Congo.
+La variété Pavetta bidentata var. sessilifolia, endémique du Cameroun, a été récoltée en 1972 par René Letouzey dans la région du Centre, sur les hauteurs de Kombeng, à 8 km au sud-sud-est de Matomb (Nyong-et-Kellé).
 </t>
         </is>
       </c>
